--- a/biology/Histoire de la zoologie et de la botanique/Liste_classée_par_patronyme/Liste_classée_par_patronyme.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_classée_par_patronyme/Liste_classée_par_patronyme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette liste ne doit pas être modifiée.
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -560,7 +574,7 @@
 Acerbi - Giuseppe Acerbi (1773-1846)
 Ach. - Erik Acharius (1757-1819)
 Achound. - Gaston Achoundong (1950-…)
-C.Acosta - Cristobal Acosta[1] (1515-1594)
+C.Acosta - Cristobal Acosta (1515-1594)
 Acuña - Julián Baldomero Acuña Galé (1900-1973)
 Adachi - Rokuro Adachi (1931-…)
 C.D.Adams - Charles Dennis Adams (1920-2005)
@@ -595,7 +609,7 @@
 Albov - Nikolaï Mikhaïlovitch Albov (1866-1897)
 N.L.Alcock - Nora Lilian Alcock (1874-1972)
 Alderw. - Cornelis Rugier Willem Karel van Alderwerelt van Rosenburgh (1863-1936)
-Aldrovandi - Ulisse Aldrovandi[1] (1522-1605)
+Aldrovandi - Ulisse Aldrovandi (1522-1605)
 Alef. - Friedrich Alefeld (1820-1872)
 Alessio - Carlo Luciano Alessio (1919-2006)
 E.B.Alexeev - Evgueni Alexeïev (1946-1987)
@@ -614,12 +628,12 @@
 P.Allorge - Pierre Allorge (1891-1944)
 V.Allorge - Valentine Allorge (1888-1977)
 L.Allorge - Lucile Boiteau-Allorge (1937-…)
-Alpino - Prospero Alpini[1] (1553-1617)
+Alpino - Prospero Alpini (1553-1617)
 Alston - Arthur Hugh Garfit Alston (1902-1958)
 Ambrosi - Francesco Ambrosi (1821-1897)
 Ameka - Gabriel Ameka (1958-…)
 Amici - Giovanni Battista Amici (1786-1863)
-Amman - Johann Amman[1] (1707-1741)
+Amman - Johann Amman (1707-1741)
 Amo - Mariano del Amo y Mora (1809-1896)
 Anderb. - Arne Anderberg (1954-…)
 C.L.Anderson - Charles Lewis Anderson (1827-1919)
@@ -678,7 +692,7 @@
 G.F.Atk. - George Francis Atkinson (1854-1918)
 Aubl. - Jean Baptiste Christian Fusée-Aublet (1720-1778)
 Aubrév. - André Aubréville (1897-1982)
-Aubriet - Claude Aubriet[1] (1651-1742)
+Aubriet - Claude Aubriet (1651-1742)
 Aubry-Lecomte - Charles Eugène Aubry-Lecomte (1821-1898)
 Aucher - Rémi Aucher-Éloy (1792-1838)
 Audouin - Jean-Victor Audouin (1797-1841)
@@ -704,7 +718,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -722,7 +736,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -802,7 +818,7 @@
 Bañares - Ángel Bañares Baudet (1954-…)
 Bancr. - Edward Nathaniel Bancroft (1772-1842)
 G.G.J.Bange - G. G. J. Bange (fl. 1952)
-Banister - John Banister[1] (1650-1692)
+Banister - John Banister (1650-1692)
 Banks - Joseph Banks (1743-1820)
 Barbey - William Barbey (1842-1914)
 Barb.Rodr. - João Barbosa Rodrigues (1842-1909)
@@ -821,8 +837,8 @@
 Barrandon - Auguste Barrandon (1814-1897)
 Barratt - Joseph Barratt (1796-1882)
 Barratte - Gustave Barratte (1857-1920)
-Barrel. - Jacques Barrelier[1] (1606-1673)
-Barrère - Pierre Barrère[1] (1690-1755)
+Barrel. - Jacques Barrelier (1606-1673)
+Barrère - Pierre Barrère (1690-1755)
 G.L.Barron - George L. Barron fl. 1961
 Barros - Manuel Barros (1880-1973)
 G.M.Barroso - Graziela Maciel Barroso (1912-2003)
@@ -852,8 +868,8 @@
 F.A.Bauer - Franz Andreas Bauer (1758-1840)
 Ralf Bauer - Ralf Bauer (fl. 2001)
 R.Bauer - Robert Bauer (mycologue) (1950-2014)
-C.Bauhin - Gaspard Bauhin[1] (1560-1624)
-J.Bauhin - Jean Bauhin[1] (1541-1613)
+C.Bauhin - Gaspard Bauhin (1560-1624)
+J.Bauhin - Jean Bauhin (1541-1613)
 V.M.Baum - Vicki M. Baum (fl. 1982)
 Baumann - Constantin Auguste Napoléon Baumann (1804-1884)
 H.Baumann - Helmut Baumann (de) (1937-2014)
@@ -941,7 +957,7 @@
 P.Bertrand - Paul Bertrand (botaniste) (1879-1944)
 Bérubé - Jean A. Bérubé (fl. 1988)
 Besch. - Émile Bescherelle (1828-1903)
-Besler - Basilius Besler[1] (1561-1629)
+Besler - Basilius Besler (1561-1629)
 Besser - Wilibald Swibert Joseph Gottlieb von Besser (1784-1842)
 Bessey - Charles Edwin Bessey (1845-1915)
 Betche - Ernst Betche (1851-1913)
@@ -995,14 +1011,14 @@
 A.Blytt - Axel Gudbrand Blytt (1843-1898)
 Blytt - Matthias Numsen Blytt (1789-1862)
 A.V.Bobrov - Alexey Vladimir Bobrov (1969-…)
-Boccone - Paolo Silvio Boccone[1] (1633-1704)
+Boccone - Paolo Silvio Boccone (1633-1704)
 Böcher - Tyge Wittrock Böcher (1909-1983)
 B.Bock - Benoît Bock (1972-…)
-H.Bock - Jérôme Bock[1] (1498-1554)
+H.Bock - Jérôme Bock (1498-1554)
 Baum.-Bod. - Marcel Gustav Baumann-Bodenheim (1920-1996)
 Boeckeler - Johann Otto Boeckeler (1803-1899)
 Boehm. - Georg Rudolf Boehmer (1723-1803)
-Boerh. - Herman Boerhaave[1] (1668-1739)
+Boerh. - Herman Boerhaave (1668-1739)
 Boerl. - Jacob Gijsbert Boerlage (1849-1900)
 Boidin - Jacques Boidin (1893-?)
 Boira - Herminio Boira (1943-…)
@@ -1087,7 +1103,7 @@
 Brack. - William Dunlop Brackenridge (1810-1893)
 J.Bradbury - John Bradbury (botaniste) (1768-1823)
 Brade - Alexander Curt Brade (1881-1971)
-Bradley - Richard Bradley (botaniste)[1] (1688-1732)
+Bradley - Richard Bradley (botaniste) (1688-1732)
 Brady - Henry Bowman Brady (1835-1891)
 Bramwell - David Bramwell (1942-…)
 K.Brandegee - Mary Katharine Brandegee (1844-1920)
@@ -1156,7 +1172,7 @@
 Brummitt - Richard Kenneth Brummitt (1937-2013)
 Jean F.Brunel - Jean-Frédéric Brunel (1945-…)
 Brunet - Louis-Ovide Brunet (1826-1876)
-Brunfels - Otto Brunfels[1] (1488-1534)
+Brunfels - Otto Brunfels (1488-1534)
 Brunner - Karl Brunner von Wattenwyl (1823-1914)
 T.D.Bruns - Thomas D. Bruns (fl. 1996)
 Brygoo - Édouard-Raoul Brygoo (1920-2016)
@@ -1211,7 +1227,7 @@
 Stuart - John Stuart (3e comte de Bute) (1713-1792)
 Buetschli - Otto Bütschli (1848-1920)
 Buxb. - Franz Buxbaum (1900-1979)
-J.C.Buxb. - Johann Christian Buxbaum[1] (1693-1730)
+J.C.Buxb. - Johann Christian Buxbaum (1693-1730)
 F.Buyss. - François du Buysson (1825-1906)
 Buyss. - Robert du Buysson (1861-1946)
 Byng - James W. Byng (fl. 2014)
@@ -1225,7 +1241,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1243,7 +1259,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1286,7 +1304,7 @@
 A.S.Calvert - Amelia Smith Calvert (1876-?)
 Calvert - Philip Powell Calvert (1871-1961)
 Cambess. - Jacques Cambessèdes (1799-1863)
-Kamel - Jiří Josef Camel[1] (1661-1706)
+Kamel - Jiří Josef Camel (1661-1706)
 Cameron - Alexander Kenneth Cameron (1908-?)
 Camper - Petrus Camper (1722-1789)
 A.Camus - Aimée Antoinette Camus (1879-1965)
@@ -1327,7 +1345,7 @@
 J.-B.Castillon - Jean-Bernard Castillon (1940-…)
 J.-P.Castillon - Jean-Philippe Castillon (1965-…)
 Castrov. - Santiago Castroviejo Bolibar (1946-2009)
-Catesby - Mark Catesby[1] (1683-1749)
+Catesby - Mark Catesby (1683-1749)
 Catling - Paul Miles Catling (1947-…)
 Caullery - Maurice Caullery (1868-1958)
 Caval.-Sm. - Thomas Cavalier-Smith (1942-2021)
@@ -1337,12 +1355,12 @@
 Cels - Jacques Philippe Martin Cels (1740-1806)
 Celsius - Olof Celsius (1670-1756)
 Cerv. - Vicente Cervantes (1755-1829)
-Cesalpino - Andrea Cesalpino[1] (1519-1603)
+Cesalpino - Andrea Cesalpino (1519-1603)
 Ces. - Vincenzo de Cesati (1806-1883)
-Cestoni - Giacinto Cestoni[1] (1637-1718)
+Cestoni - Giacinto Cestoni (1637-1718)
 Chabaud - Justin-Benjamin Chabaud (1833-1915)
 P.Chabert - Pierre Chabert (botaniste) (1796-1867)
-Chabrey - Dominique Chabrey[1] (1610-1669)
+Chabrey - Dominique Chabrey (1610-1669)
 G.Chacón - Gloria Chacón Roldán (1940-…)
 Chadef. - Marius Chadefaud (1900-1984)
 Chagas - Carlos Chagas (1879-1934)
@@ -1377,7 +1395,7 @@
 X.D.Chen - Xi Dian Chen (1935-…)
 X.L.Chen - Xin Lu Chen (fl. 1989)
 W.C.Cheng - Wan Chun Cheng (1908-1987)
-Cherler - Johann Heinrich Cherler[1] (1570-1610)
+Cherler - Johann Heinrich Cherler (1570-1610)
 Cherm. - Henri Chermezon (1885-1939)
 A.Chev. - Auguste Chevalier (1873-1956)
 Chevall. - François Fulgis Chevallier (1796-1840)
@@ -1453,8 +1471,8 @@
 Colomb - Georges Colomb (auteur) (1856-1945)
 Coltm.-Rog. - Charles Coltman-Rogers (1854-1929)
 Comes - Orazio Comes (1848-1923)
-C.Commelijn - Caspar Commelijn[1] (1667/8-1731)
-J.Commelijn - Jan Commelijn[1] (1629-1692)
+C.Commelijn - Caspar Commelijn (1667/8-1731)
+J.Commelijn - Jan Commelijn (1629-1692)
 Comm. - Philibert Commerson (1727-1773)
 Compère - Pierre Compère (1934-2016)
 Conard - Henry Shoemaker Conard (1874-1971)
@@ -1483,13 +1501,13 @@
 C.Cordem. - Camille Jacob de Cordemoy (1840-1909)
 Cordem. - Eugène Jacob de Cordemoy (1835-1911)
 Cordier - François Simon Cordier (1797-1874)
-E.Cordus - Euricius Cordus[1] (1486-1535)
-V.Cordus - Valerius Cordus[1] (1514-1544)
+E.Cordus - Euricius Cordus (1486-1535)
+V.Cordus - Valerius Cordus (1514-1544)
 Corill. - Robert Corillion (1908-1997)
 Corliss - John Ozro Corliss (1922-2014)
 Corner - Edred John Henry Corner (1906-1996)
 Cornu - Maxime Cornu (1843-1901)
-Cornut - Jacques Philippe Cornut[1] (1606-1651)
+Cornut - Jacques Philippe Cornut (1606-1651)
 Correa - José Francisco Corrêa da Serra (1751-1823)
 Correll - Donovan Stewart Correll (1908-1983)
 Correns - Carl Correns (1864-1933)
@@ -1554,7 +1572,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1572,7 +1590,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1611,8 +1631,8 @@
 Dahlst. - Hugo Dahlstedt (1856-1934)
 L.K.Dai - Lun Kai Dai (fl. 1963)
 Y.C.Dai - Yu Cheng Dai (fl. 1994)
-S.Dale - Samuel Dale (botaniste)[1] (1659-1739)
-Daléchamps - Jacques Daléchamps[1] (1513-1588)
+S.Dale - Samuel Dale (botaniste) (1659-1739)
+Daléchamps - Jacques Daléchamps (1513-1588)
 Dalla Torre - Karl Wilhelm von Dalla Torre (1850-1928)
 Dallim. - William Dallimore (1871-1959)
 Dalpé - Yolande Dalpé (1948-…)
@@ -1621,7 +1641,7 @@
 Dalzell - Nicol Alexander Dalzell (1817-1878)
 Dalziel - John McEwan Dalziel (1872-1948)
 Damboldt - Jürgen Damboldt (1937-1978)
-Dampier - William Dampier[1] (1652-1715)
+Dampier - William Dampier (1652-1715)
 Dana - James Dwight Dana (1813-1895)
 Dandy - James Edgar Dandy (1903-1976)
 P.A.Dang. - Pierre Augustin Dangeard (1862-1947)
@@ -1652,7 +1672,7 @@
 De Moor - Victor Pierre Ghislain De Moor (1827-1895)
 de Noé - Vicomte de Noé (fl. 1854-1871)
 De Not. - Giuseppe De Notaris (1805-1877)
-Garcia de Orta - Garcia de Orta[1] (fl. 1490-1570)
+Garcia de Orta - Garcia de Orta (fl. 1490-1570)
 De Puydt - Paul-Émile De Puydt (1810-1891)
 De Seynes - Jules de Seynes (1833-1912)
 De Toni - Giovanni Battista De Toni (1864-1924)
@@ -1727,7 +1747,7 @@
 F.Dietr. - Friedrich Gottlieb Dietrich (1768-1850)
 W.O.Dietr. - Wilhelm Otto Dietrich (1881-1964)
 Dijk - D. Eduard Van Dijk (?-?)
-Dill. - Johann Jacob Dillenius[1] (1684-1747)
+Dill. - Johann Jacob Dillenius (1684-1747)
 Dillon - Lawrence Samuel Dillon (1910-1999)
 Dillwyn - Lewis Weston Dillwyn (1778-1855)
 Dinkl. - Max Julius Dinklage (1864-1935)
@@ -1736,7 +1756,7 @@
 Dod - Donald Dungan Dod (1912-2008)
 Dode - Louis-Albert Dode (1875-1945)
 B.O.Dodge - Bernard Ogilvie Dodge (1872-1960)
-Dodoens - Rembert Dodoens[1] (1518-1585)
+Dodoens - Rembert Dodoens (1518-1585)
 Dodson - Calaway Dodson (1928-…)
 Doebley - John F. Doebley (fl. 1980)
 Doflein - Franz Doflein (1873-1925)
@@ -1843,7 +1863,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1861,7 +1881,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1897,7 +1919,7 @@
 Ebihara - Atsushi Ebihara (fl. 2003)
 Eckfeldt - John Wiegand Eckfeldt (1851-1933)
 Eckl. - Christian Friedrich Ecklon (1795-1868)
-Clus. - Charles de L'Écluse[1] (1525-1609)
+Clus. - Charles de L'Écluse (1525-1609)
 Edgew. - Michael Pakenham Edgeworth (1812-1881)
 Edmondston - Thomas Edmondston (1825-1846)
 D.Edwards - Dianne Edwards (1942-…)
@@ -1960,7 +1982,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1978,7 +2000,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -2014,7 +2038,7 @@
 Facchini - Francesco Angelo Facchini (1788-1852)
 Faegri - Knut Fægri (1909-2001)
 Fage - Louis Fage (1883-1964)
-Fagon - Guy-Crescent Fagon[1] (1638-1718)
+Fagon - Guy-Crescent Fagon (1638-1718)
 D.Fairchild - David Fairchild (1869-1954)
 Falanruw - Marjorie Falanruw (1943-…)
 Falck - Richard Falck (1868-1955)
@@ -2061,7 +2085,7 @@
 Ferreira - Alexandre Rodrigues Ferreira (1756-1815)
 Ferry - René Joseph Justin Ferry (1845-1924)
 Férussac - André Étienne Justin Pascal Joseph François d'Audebert de Férussac (1786-1836)
-Feuillée - Louis Feuillée[1] (1660-1732)
+Feuillée - Louis Feuillée (1660-1732)
 Fiala - Franz Fiala (de) (1861-1898)
 Fieber - Franz Xaver Fieber (1807-1872)
 Figlar - Richard B. Figlar (fl. 2000)
@@ -2112,7 +2136,7 @@
 P.I.Forst. - Paul Irwin Forster (1961-…)
 T.F.Forst. - Thomas Furly Forster (1761-1825)
 Forsyth - William Forsyth (1737-1804)
-Forsyth f. - William Forsyth, Jn. (?1772-1835)[1]
+Forsyth f. - William Forsyth, Jn. (?1772-1835)
 Fors.-Major - Charles Immanuel Forsyth Major (1843-1923)
 Forti - Achille Italo Forti (1878-1937)
 Fortune - Robert Fortune (botaniste) (1812-1880)
@@ -2171,7 +2195,7 @@
 Fron - Georges Fron (1870-1957)
 Fryxell - Paul Arnold Fryxell (1927-…)
 K.T.Fu - Kun Tsun Fu (1912-…)
-L.Fuchs - Leonhart Fuchs[1] (1501-1566)
+L.Fuchs - Leonhart Fuchs (1501-1566)
 H.P.Fuchs - Hans Peter Fuchs-Eckert (1928-1999)
 Fukuyo - Yasuwo Fukuyo (1948-…)
 Fulford - Margaret Hannah Fulford (en) (1904-1999)
@@ -2185,7 +2209,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2203,7 +2227,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -2294,7 +2320,7 @@
 A.Gepp - Anthony Gepp (1862-1955)
 E.Gepp - Ethel Sarel Barton Gepp (1864-1922)
 F.Gérard - F. Gérard (abbé et botaniste) (fl. 1885)
-J.Gerard - John Gerard[1] (1545-1612)
+J.Gerard - John Gerard (1545-1612)
 Gérard - Louis Gérard (1733-1819)
 W.R.Gerard - William Ruggles Gerard (1841-1914)
 Gereau - Roy Emile Gereau (1947-…)
@@ -2302,7 +2328,7 @@
 Germ. - Jacques Nicolas Ernest Germain de Saint-Pierre (1815-1882)
 Germar - Ernst Friedrich Germar (1786-1853)
 Gerold - Raymond Gerold (fl. 1994)
-Gesner - Conrad Gessner[1] (1516-1565)
+Gesner - Conrad Gessner (1516-1565)
 Gessner - Johannes Gessner (1709-1790)
 Gestro - Raffaello Gestro (1845-1936)
 Getliffe - Fiona Mary Getliffe (1941-…)
@@ -2310,7 +2336,7 @@
 Geyl. - Hermann Theodor Geyler (1834-1889)
 Ghafoor - Abdul Ghafoor (1938-…)
 Ghiesbr. - Auguste Boniface Ghiesbreght (1810-1893)
-Ghini - Luca Ghini[1] (1490-1556)
+Ghini - Luca Ghini (1490-1556)
 Giard - Alfred Giard (1846-1908)
 Gibbes - Lewis Reeve Gibbes (1810-1894)
 Gibbs - Lilian Suzette Gibbs (1870-1925)
@@ -2466,7 +2492,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2484,7 +2510,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -2644,9 +2672,9 @@
 Hérincq - François Hérincq (1820-1891)
 Herink - Josef Herink (1915-1999)
 F.J.Herm. - Frederick Joseph Hermann (1906-1987)
-Herm. - Paul Hermann (botaniste)[1] (1646-1695)
+Herm. - Paul Hermann (botaniste) (1646-1695)
 E.Hern. - Efraín Hernández (fl. 1995)
-F.Hern. - Francisco Hernández[1] (1514-1587)
+F.Hern. - Francisco Hernández (1514-1587)
 Herre - Albert William Christian Theodore Herre (1868-1962)
 Herrero - Alberto Herrero (fl. 1995)
 Herrm. - Jean Hermann (1738-1800)
@@ -2805,7 +2833,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2823,7 +2851,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -2869,7 +2899,7 @@
 Irmsch. - Edgar Irmscher (1887-1968)
 Isab. - Arsène Isabelle (1807-1888)
 Isert - Paul Erdmann Isert (1756-1789)
-Isnard - Antoine-Tristan Danty d'Isnard[1] (1663-1743)
+Isnard - Antoine-Tristan Danty d'Isnard (1663-1743)
 Issel - Raffaele Issel (1878-1936)
 Issler - Émile Issler (1872-1952)
 H.Ito - Ito Hiroshi (1909-2006)
@@ -2886,7 +2916,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2904,7 +2934,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -2997,7 +3029,7 @@
 Jones - William Jones (linguiste) (1746-1794)
 W.G.Jones - Wyn G. Jones (fl. 1995)
 S.Jónss. - Sigurður Jónsson (1926-2007)
-Jonst. - Jan Jonston[1] (1603-1675)
+Jonst. - Jan Jonston (1603-1675)
 Jordaan - Marie Jordaan (1948-…)
 Jord. - Alexis Jordan (1814-1897)
 D.S.Jord. - David Starr Jordan (1851-1931)
@@ -3009,7 +3041,7 @@
 Juill. - Jules Juillet (fl. 1831)
 Jülich - Walter Jülich (1942-…)
 Jum. - Henri Lucien Jumelle (1866-1935)
-Jung - Joachim Jung[1] (1587-1657)
+Jung - Joachim Jung (1587-1657)
 Jungh. - Franz Wilhelm Junghuhn (1809-1864)
 Jungner - Johan Richard Jungner (1858-1929)
 A.Juss. - Adrien de Jussieu (1797-1853)
@@ -3028,7 +3060,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3046,7 +3078,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -3077,7 +3111,7 @@
 Z
 Kablík. - Josephine Kablick (1787-1863)
 S.Kaczm. - Sławomir Kaczmarek (fl. 1987)
-Kaempf. - Engelbert Kaempfer[1] (1651-1716)
+Kaempf. - Engelbert Kaempfer (1651-1716)
 Kalela - Aimo Aarno Antero Kalela (sv) (1908-1977)
 Kalkman - Cornelis Kalkman (1928-1998)
 Källersjö - Mari Källersjö (es) (1954-…)
@@ -3121,7 +3155,7 @@
 J.Kickx - Jean Kickx (1775-1831) (1775-1831)
 Kieff. - Jean-Jacques Kieffer (1857-1925)
 Kiew - Ruth Kiew (1946-…)
-Kiggel. - Franz Kiggelaer[1] (1648-1722)
+Kiggel. - Franz Kiggelaer (1648-1722)
 N.Kilian - Norbert Kilian (es) (1957-…)
 Killick - Donald Joseph Boomer Killick (1926-…)
 Kimnach - Myron William Kimnach (es) (1922-2018)
@@ -3150,8 +3184,8 @@
 Klugh - Alfred Brooker Klugh (1882-1932)
 Kluk - Jan Krzysztof Kluk (1739-1796)
 S.Knapp - Sandra Knapp (1956-…)
-Knaut - Christian Knauth[1] (1654-1716)
-Knauth - Christoph Knauth[1] (1638-1694)
+Knaut - Christian Knauth (1654-1716)
+Knauth - Christoph Knauth (1638-1694)
 Kneuck. - Johann Andreas Kneucker (1862-1946)
 Kniep - Hans Kniep (1881-1930)
 C.Knight - Charles Knight (botaniste) (1818-1895)
@@ -3266,7 +3300,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3284,7 +3318,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -3493,13 +3529,13 @@
 J.Lloyd - James Lloyd (1810-1896)
 T.Lobb - Thomas Lobb (1820-1894)
 W.Lobb - William Lobb (1809-1863)
-Lobel - Mathias de l'Obel[1] (1538-1616)
+Lobel - Mathias de l'Obel (1538-1616)
 Lockh. - David Lockhart (?-1845)
 Locq. - Marcel Locquin (1922-…)
 Lodd. - Conrad Loddiges (1738-1826)
 G.Lodd. - George Loddiges (1784-1846)
 Lodé - Joël Lodé (1952-…)
-Loesel - Johannes Loesel[1] (1607-1655)
+Loesel - Johannes Loesel (1607-1655)
 Loes. - Ludwig Eduard Theodor Loesener (1865-1941)
 Loefgr. - Albert Löfgren (1854-1919)
 Loefl. - Pehr Löfling (1729-1756)
@@ -3507,7 +3543,7 @@
 Lojac. - Michele Lojacono-Pojero (1853-1919)
 J.A.Long - John A. Long (?-?)
 R.W.Long - Robert William Long (1927-1976)
-Lonitzer - Adam Lonitzer[1] (1528-1586)
+Lonitzer - Adam Lonitzer (1528-1586)
 Lönnrot - Elias Lönnrot (1802-1884)
 Looser - Gualterio Looser (1898-1982)
 G.López - Ginés Alejandro López González (1950-…)
@@ -3568,7 +3604,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3586,7 +3622,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -3638,7 +3676,7 @@
 F.Magne - Francis Magne (1924-2014)
 Magnin - Antoine Magnin (1848-1926)
 J.Magnin - Joëlle Magnin-Gonze (1961-…)
-Magnol - Pierre Magnol[1] (1638-1715)
+Magnol - Pierre Magnol (1638-1715)
 Maguire - Bassett Maguire (1904-1991)
 Maiden - Joseph Henry Maiden (1859-1925)
 Mains - Edwin Butterworth Mains (1890-1968)
@@ -3668,7 +3706,7 @@
 Manton - Irene Manton (1904-1988)
 S.J.Marais - Sarel J. Marais (fl. 2010)
 Marais - Wessel Marais (1929-2013)
-Maranta - Bartolomeo Maranta[1] (v. 1500-1571)
+Maranta - Bartolomeo Maranta (v. 1500-1571)
 Marc.-Berti - Luis Marcano-Berti (fl. 1967)
 A.Marchand - André Marchand (mycologue) (?-1988)
 Maréchal - Robert Joseph Jean-Marie Maréchal (1926-…)
@@ -3679,7 +3717,7 @@
 Vict. - Marie-Victorin (1885-1944)
 Marion - Antoine-Fortuné Marion (1846-1900)
 Markgr. - Friedrich Markgraf (1897-1987)
-Marcgr. - Georg Markgraf[1] (1610-1644)
+Marcgr. - Georg Markgraf (1610-1644)
 Markham - Clements Markham (1830-1916)
 Marloth - Hermann Wilhelm Rudolf Marloth (1855-1931)
 Marriott - Neil Marriott (fl. 1993)
@@ -3687,7 +3725,7 @@
 Marsh - Charles Dwight Marsh (1855-1932)
 Marshall - Humphry Marshall (1722-1801)
 Marsili - Giovanni M. Marsili (1727-1794)
-L.Marsili - Luigi Ferdinando Marsigli[1] (1656-1730)
+L.Marsili - Luigi Ferdinando Marsigli (1656-1730)
 E.Martens - Eduard Carl von Martens (1831-1904)
 M.Martens - Martin Martens (1797-1863)
 Jos.Martin - Joseph Martin (jardinier) (ca. 1760-1826)
@@ -3717,7 +3755,7 @@
 K.M.Matthew - Koyapillil Mathai Matthew (1930-2004)
 V.A.Matthews - Victoria Ann Matthews (1941-…)
 Mattick - Wilhelm Fritz Mattick (1901-1984)
-Mattioli - Pierandrea Mattioli[1] (1501-1577)
+Mattioli - Pierandrea Mattioli (1501-1577)
 Mattos - João Rodrigues de Mattos (es) (1926-)
 Mattox - Karl R. Mattox (1936-…)
 Matt. - Heinrich Gottfried von Mattuschka (1734-1779)
@@ -3797,7 +3835,7 @@
 Michalet - Eugène Michalet (1829-1862)
 Michx. - André Michaux (1746-1803)
 F.Michx. - François André Michaux (1770-1855)
-P.Micheli - Pier Antonio Micheli[1] (1679-1737)
+P.Micheli - Pier Antonio Micheli (1679-1737)
 E.Michener - Ezra Michener (1794-1887)
 Miciurin - Ivan Mitchourine (1855-1935)
 Middend. - Alexander von Middendorff (1815-1894)
@@ -3868,7 +3906,7 @@
 Moric. - Stefano Moricand (1779-1854)
 Morière - Jules Morière (1817-1888)
 Moris - Giuseppe Giacinto Moris (1796-1869)
-Morison - Robert Morison[1] (1620-1683)
+Morison - Robert Morison (1620-1683)
 Moritzi - Alexandre Moritzi (1807-1850)
 Morley - Thomas Morley (botaniste) (1917-2002)
 Morong - Thomas Morong (1827-1894)
@@ -3929,7 +3967,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3947,7 +3985,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -4036,7 +4076,7 @@
 I.C.Nielsen - Ivan Christian Nielsen (1946-2007)
 Sv.Nilsson - Sven Nilsson (mycologue) (1929-…)
 Nimmo - Joseph Nimmo (?-1854)
-Nissole - Guillaume Nissole[1] (1647-1735)
+Nissole - Guillaume Nissole (1647-1735)
 Nitzsch - Christian Ludwig Nitzsch (1782-1837)
 Nixon - Kevin Nixon (1953-…)
 Nkongm. - Bernard-Aloys Nkongmeneck (1948-2017)
@@ -4072,7 +4112,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4090,7 +4130,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -4181,7 +4223,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4199,7 +4241,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -4257,7 +4301,7 @@
 Parker - William Kitchen Parker (1823-1890)
 Parkin - John Parkin (1873-1964)
 J.Parkinson - James Parkinson (1755-1824)
-John Parkinson - John Parkinson[1] (1567-1650)
+John Parkinson - John Parkinson (1567-1650)
 Parkinson - Sydney Parkinson (1745-1771)
 Parl. - Filippo Parlatore (1816-1877)
 Parmasto - Erast Parmasto (1928-…)
@@ -4314,7 +4358,7 @@
 Perkins - Janet Russell Perkins (1853-1933)
 Perleb - Karl Julius Perleb (1794-1845)
 Perp. - Helena Perpenti (1764-1846)
-Perrault - Claude Perrault[1] (1613-1688)
+Perrault - Claude Perrault (1613-1688)
 E.Perrier - Edmond Perrier (1844-1921)
 E.P.Perrier - Eugène Pierre Perrier de La Bâthie (es) (1825-1916)
 H.Perrier - Henri Perrier de La Bâthie (1873-1958)
@@ -4337,7 +4381,7 @@
 D.P.Petit - Daniel Pierre Petit (fl. 1987)
 E.M.A.Petit - Ernest Petit (botaniste) (1927-2007)
 Petitm. - Marcel Georges Charles Petitmengin (1881-1908)
-Petiver - James Petiver[1] (1658-1718)
+Petiver - James Petiver (1658-1718)
 Petrie - Donald Petrie (botaniste) (1846-1925)
 Petrovič - Sava Petrovič (1839-1889)
 Pett. - Bror Johan Pettersson (1895-?)
@@ -4377,7 +4421,7 @@
 Piré - Louis Piré (1827-1887)
 Pires - João Murça Pires (1916-1994)
 Pirotta - Pietro Romualdo Pirotta (1853-1936)
-Piso - Willem Piso[1] (c.1611-1678)
+Piso - Willem Piso (c.1611-1678)
 Pit. - Charles-Joseph Marie Pitard-Briau (1873-1927)
 Pittier - Henri Pittier (1857-1950)
 Planch. - Jules Émile Planchon (1823-1888)
@@ -4385,8 +4429,8 @@
 Plée - Auguste Plée (1786-1825)
 Plenck - Joseph Jacob von Plenck (1738-1807)
 Plowes - Darrel Charles Herbert Plowes (1925-…)
-Pluk. - Leonard Plukenet[1] (1642-1706)
-Plum. - Charles Plumier[1] (1646-1704)
+Pluk. - Leonard Plukenet (1642-1706)
+Plum. - Charles Plumier (1646-1704)
 Poche - Franz Poche (1879-1945)
 Pocock - Mary Pocock (1886-1977)
 Pocta - Filip Počta (1859-1924)
@@ -4475,7 +4519,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4493,7 +4537,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -4539,7 +4585,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4557,7 +4603,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -4621,11 +4669,11 @@
 Raunk. - Christen Christiansen Raunkiær (1860-1938)
 Rauschert - Stephan Rauschert (1931-1986)
 Rauwenh. - Nicolas Willem Pieter Rauwenhoff (1826-1909)
-Rauwolff - Leonhard Rauwolf[1] (1535-1596)
+Rauwolff - Leonhard Rauwolf (1535-1596)
 P.H.Raven - Peter Hamilton Raven (1936-…)
 Ravenel - Henry William Ravenel (1814-1887)
 Ravenna - Pierfelice Ravenna (1938-…)
-Ray - John Ray[1] (1627-1705)
+Ray - John Ray (1627-1705)
 M.F.Ray - Martin Forbes Ray (fl. 1998)
 Raymond - Louis-Florent-Marcel Raymond (1915-1972)
 Raym.-Hamet - Raymond-Hamet (1890-1972)
@@ -4636,7 +4684,7 @@
 Rebmann - Norbert Rebmann (1948-…)
 Rech. - Karl Rechinger (1867-1952)
 Rech.f. - Karl Heinz Rechinger (1906-1998)
-Redi - Francesco Redi[1] (1626-1698)
+Redi - Francesco Redi (1626-1698)
 Redouté - Pierre-Joseph Redouté (1759-1840)
 Rees - Abraham Rees (1743-1825)
 Reeves - Robert Gatlin Reeves (1898-?)
@@ -4659,7 +4707,7 @@
 Renault - Bernard Renault (1836-1904)
 P.Renault - Pierre Antoine Renault (1750-1835)
 Rendle - Alfred Barton Rendle (1865-1938)
-Reneaulme - Paul Reneaulme[1] (1560-1624)
+Reneaulme - Paul Reneaulme (1560-1624)
 Renvoize - Stephen Andrew Renvoize (1944-…)
 Req. - Esprit Requien (1788-1851)
 Resvoll - Thekla Resvoll (1871-1948)
@@ -4674,14 +4722,14 @@
 Reyn. - Jean-Louis-Antoine Reynier (1762-1824)
 Reynolds - Gilbert Westacott Reynolds (1895-1967)
 Reznicek - Anton Albert Reznicek (1950-…)
-Rheede - Hendrik van Rheede[1] (1637-1691)
+Rheede - Hendrik van Rheede (1637-1691)
 W.Rich - William Rich (1800-1864)
 A.Rich. - Achille Richard (1794-1852)
 J.M.C.Rich. - Jean Michel Claude Richard (1784-1868)
 Rich. - Louis Claude Richard (1754-1821)
 P.W.Richards - Paul Westmacott Richards (1908-1995)
 Richardson - John Richardson (naturaliste) (1787-1865)
-Rich.Bell. - Pierre Richer de Belleval[1] (1564-1632)
+Rich.Bell. - Pierre Richer de Belleval (1564-1632)
 Richon - Charles Édouard Richon (1820-1893)
 K.Richt. - Karl Richter (botaniste) (1855-1891)
 Ricken - Adalbert Ricken (1851-1921)
@@ -4697,20 +4745,20 @@
 Rivas Mart. - Salvador Rivas Martínez (es) (1935-…)
 C.Rivière - Charles Marie Rivière (1845-…)
 Rivière - Auguste Rivière (1821-1877)
-Riv. - Augustus Quirinus Rivinus[1] (1652-1723)
+Riv. - Augustus Quirinus Rivinus (1652-1723)
 Rizzini - Carlos Toledo Rizzini (1921-…)
 Robatsch - Karl Robatsch (1929-2001)
 Robbertse - Petrus Johannes Robbertse (1932-…)
 Robbr. - Elmar Robbrecht (1946-…)
-Roberg - Lars Roberg[1] (1664-1742)
+Roberg - Lars Roberg (1664-1742)
 Roberge - Michael Robert Roberge (?-1864)
-N.Robert - Nicolas Robert[1] (1610-1684)
+N.Robert - Nicolas Robert (1610-1684)
 A.V.Roberts - Andrew Vaughan Roberts (1940-…)
 Robertson - David Robertson (naturaliste) (1806-1896)
 Roberty - Guy Roberty (1907-1971)
 L.M.A.Robill. - Louis Marc Antoine Robillard d'Argentelle (1777-1828)
 C.P.Robin - Charles Philippe Robin (1821-1885)
-J.Robin - Jean Robin (botaniste)[1] (1550-1629)
+J.Robin - Jean Robin (botaniste) (1550-1629)
 B.L.Rob. - Benjamin Lincoln Robinson (1864-1935)
 C.B.Rob. - Charles Budd Robinson (1871-1913)
 H.Rob. - Harold Ernest Robinson (1932-…)
@@ -4738,7 +4786,7 @@
 Romans - Bernard Romans (v. 1720-1784)
 Roem. - Johann Jakob Römer (1763-1819)
 G.A.Romero - Gustavo Adolfo Romero (1955-…)
-Rondelet - Guillaume Rondelet[1] (1507-1566)
+Rondelet - Guillaume Rondelet (1507-1566)
 Ronniger - Karl Ronniger (1871-1954)
 Ronse Decr. - Louis-Philippe Ronse Decraene (1962-…)
 Röösli - Walter Röösli (fl. 1994)
@@ -4790,14 +4838,14 @@
 Rubite - Rosario Rivera Rubite (fl. 2013)
 Rudall - Paula Rudall (1954-…)
 J.O.Rudbeck - Johan Olof Rudbeck (1711-1790)
-O.J.Rudbeck - Olof Rudbeck[1] (1630-1702)
-O.O.Rudbeck - Olof Rudbeck le Jeune[1] (1660-1740)
+O.J.Rudbeck - Olof Rudbeck (1630-1702)
+O.O.Rudbeck - Olof Rudbeck le Jeune (1660-1740)
 Rudge - Edward Rudge (1763-1846)
 F.Rudolphi - Friedrich Karl Ludwig Rudolphi (1801-1849)
 Rudolphi - Karl Asmund Rudolphi (1771-1832)
 Ruiz - Hipólito Ruiz López (1754-1815)
-Rumph. - Georg Everhard Rumphius[1] (1628-1702)
-Ruppius - Heinrich Bernhard Rupp[1] (1688-1719)
+Rumph. - Georg Everhard Rumphius (1628-1702)
+Ruppius - Heinrich Bernhard Rupp (1688-1719)
 Rupp - Herman Montague Rucker Rupp (1872-1956)
 Rüppell - Eduard Rüppell (1794-1884)
 Rupr. - Franz Josef Ruprecht (1814-1870)
@@ -4818,7 +4866,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4836,7 +4884,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -4944,7 +4994,7 @@
 Schenck - Johann Heinrich Rudolf Schenck (en) (1860-1927)
 Schenk - Joseph August Schenk (en) (1815-1891)
 Scherb. - Johannes Scherbius (1769-1813)
-J.J.Scheuchzer - Johann Jakob Scheuchzer[1] (1672-1733)
+J.J.Scheuchzer - Johann Jakob Scheuchzer (1672-1733)
 Scheutz - Nils Johan Wilhelm Scheutz (sv) (1836-1889)
 Schiede - Christian Julius Wilhelm Schiede (1798-1836)
 Schikora - Friedrich Schikora (1859-1932)
@@ -5071,7 +5121,7 @@
 H.Shaw - Henry Shaw (1800-1889)
 Shear - Cornelius Lott Shear (1865-1956)
 E.Sheld. - Edmund Perry Sheldon (es) (1869-1913)
-Sherard - William Sherard[1] (1659-1728)
+Sherard - William Sherard (1659-1728)
 Sherff - Earl Edward Sherff (1886-1966)
 Shibata - Keita Shibata (1877-1949)
 C.Shih - Chu Shih (1934-…)
@@ -5086,7 +5136,7 @@
 Sieber - Franz Wilhelm Sieber (1789-1844)
 C.Siebold - Karl Theodor Ernst von Siebold (1804-1885)
 Siebold - Philipp Franz von Siebold (1796-1866)
-Siegesb. - Johann Georg Siegesbeck[1] (1686-1755)
+Siegesb. - Johann Georg Siegesbeck (1686-1755)
 J.Sierra - Jorge Sierra (fl. 1989)
 Siesm. - Franz Heinrich Siesmayer (1817-1900)
 Siev. - Johann Sievers (1762-1795)
@@ -5115,7 +5165,7 @@
 A.K.Skvortsov - Alexeï Skvortsov (1920-2008)
 Skvortsov - Boris Vassilievich Skvortsov (1896-1980)
 Sleumer - Hermann Otto Sleumer (1906-1993)
-Sloane - Hans Sloane[1] (1660-1753)
+Sloane - Hans Sloane (1660-1753)
 E.Small - Ernest Small (1940-…)
 J.Small - James Small (1889-1955)
 Small - John Kunkel Small (1869-1938)
@@ -5230,7 +5280,7 @@
 B.A.Stein - Bruce Alan Stein (1955-…)
 F.Stein - Samuel Friedrich Nathaniel Stein (1818-1885)
 V.W.Steinm. - Victor W. Steinmann (fl. 1995)
-Steller - Georg Wilhelm Steller[1] (1709-1746)
+Steller - Georg Wilhelm Steller (1709-1746)
 Štěpánek - Jan Štěpánek (1955-…)
 Stephens - Edith Layard Stephens (1884-1966)
 T.A.Stephenson - Thomas Alan Stephenson (1898-1961)
@@ -5297,7 +5347,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5315,7 +5365,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -5360,7 +5412,7 @@
 Ant.Targ.Tozz. - Antonio Targioni Tozzetti (1785-1856)
 Targ.Tozz. - Giovanni Targioni Tozzetti (1712-1783)
 O.Targ.Tozz. - Ottaviano Targioni Tozzetti (1755-1829)
-Tärnström - Christopher Tärnström[1] (1703-1746)
+Tärnström - Christopher Tärnström (1703-1746)
 Taschenb. - Ernst Ludwig Taschenberg (en) (1818-1898)
 G.H.Tate - George Henry Hamilton Tate (1894-1953)
 Tate - Ralph Tate (en) (1840-1901)
@@ -5377,7 +5429,7 @@
 W.R.Taylor - William Randolph Taylor (en) (1895-1990)
 Tchich. - Piotr Tchikhatchov (1812-1890)
 Tebbitt - Mark C. Tebbitt (fl. 2000)
-Teichm. - Hermann Friedrich Teichmeyer[1] (1685-1746)
+Teichm. - Hermann Friedrich Teichmeyer (1685-1746)
 Teijsm. - Johannes Elias Teijsmann (1809-1882)
 M.Teissier - Marc Teissier (fl. 1996)
 Telfair - Charles Telfair (1777-1833)
@@ -5399,7 +5451,7 @@
 Thays - Charles Thays (1849-1934)
 Thell. - Albert Thellung (1881-1928)
 W.Theob. - William Theobald (en) (1829-1908)
-Theophr. - Théophraste[1] (VIe – IIIe siècles av. J.-C.)
+Theophr. - Théophraste (VIe – IIIe siècles av. J.-C.)
 Thib.Chanv. - Jean-Baptiste Thibault de Chanvalon (1725-1785)
 K.R.Thiele - Kevin Thiele (fl. 1988)
 L.Thienem. - Ludwig Thienemann (1793-1858)
@@ -5454,15 +5506,15 @@
 Tonduz - Adolphe Tonduz (1862-1921)
 Topsent - Émile Topsent (1862-1951)
 Torell - Otto Martin Torell (1828-1900)
-Torén - Olof Torén[1] (1718-1753)
+Torén - Olof Torén (1718-1753)
 Torr. - John Torrey (1796-1873)
 Torssander - Axel Gustav Abraham Torssander (1843-1905)
-Tourn. - Joseph Pitton de Tournefort[1] (1656-1708)
+Tourn. - Joseph Pitton de Tournefort (1656-1708)
 J.K.Towns. - John Kirk Townsend (1809-1851)
 R.A.Towns. - Roberta Ann Townsend (1954-…)
 R.Townson - Robert Townson (1762-1827)
 Trab. - Louis Charles Trabut (1853-1929)
-Trad. - John Tradescant le Jeune[1] (1608-1662)
+Trad. - John Tradescant le Jeune (1608-1662)
 Traill - George William Traill (1836-1897)
 Tratt. - Leopold Trattinnick (1764-1849)
 Traub - Hamilton Paul Traub (1890-1983)
@@ -5521,7 +5573,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5539,7 +5591,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -5589,7 +5643,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5607,7 +5661,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -5642,7 +5698,7 @@
 J.Vahl - Jens Vahl (1796-1854)
 Vahl - Martin Vahl (1749-1804)
 L.Vaill. - Léon Vaillant (1834-1914)
-Vaill. - Sébastien Vaillant[1] (1669-1722)
+Vaill. - Sébastien Vaillant (1669-1722)
 Valerio - Juvenal Valerio Rodríguez (1900-1971)
 Valeton - Theodoric Valeton (1855-1929)
 J.N.Vallot - Jacques-Nicolas Vallot (1771-1860)
@@ -5653,7 +5709,7 @@
 Van Heurck - Henri Ferdinand Van Heurck (1838-1909)
 Van Houtte - Louis Van Houtte (1810-1876)
 van Jaarsv. - Ernst Jacobus van Jaarsveld (1953-…)
-Van Sterbeeck - Johannes Franciscus Van Sterbeeck[1] (1630-1693)
+Van Sterbeeck - Johannes Franciscus Van Sterbeeck (1630-1693)
 A.E.van Wyk - Abraham Erasmus van Wyk (1952-…)
 Vand. - Domenico Agostino Vandelli (1735-1816)
 Vanden Berghen - Constant Vanden Berghen (1914-2004)
@@ -5736,7 +5792,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5754,7 +5810,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -5961,7 +6019,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5979,7 +6037,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -6019,7 +6079,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6037,7 +6097,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -6088,7 +6150,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6106,7 +6168,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -6178,7 +6242,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_class%C3%A9e_par_patronyme</t>
+          <t>Liste_classée_par_patronyme</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6196,7 +6260,9 @@
           <t>#</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
